--- a/natmiOut/OldD2/LR-pairs_lrc2p/Calr-Tshr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Calr-Tshr.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>65.60758290876539</v>
+        <v>65.652523</v>
       </c>
       <c r="H2">
-        <v>65.60758290876539</v>
+        <v>131.305046</v>
       </c>
       <c r="I2">
-        <v>0.08152006478629474</v>
+        <v>0.07819491960606291</v>
       </c>
       <c r="J2">
-        <v>0.08152006478629474</v>
+        <v>0.05521457487889056</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.68981440642683</v>
+        <v>0.7262925</v>
       </c>
       <c r="N2">
-        <v>0.68981440642683</v>
+        <v>1.452585</v>
       </c>
       <c r="O2">
-        <v>0.3078804573614734</v>
+        <v>0.2952325527432663</v>
       </c>
       <c r="P2">
-        <v>0.3078804573614734</v>
+        <v>0.2455349483544712</v>
       </c>
       <c r="Q2">
-        <v>45.25705586130904</v>
+        <v>47.6829350609775</v>
       </c>
       <c r="R2">
-        <v>45.25705586130904</v>
+        <v>190.73174024391</v>
       </c>
       <c r="S2">
-        <v>0.02509843483054137</v>
+        <v>0.02308568572685244</v>
       </c>
       <c r="T2">
-        <v>0.02509843483054137</v>
+        <v>0.01355710779130248</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>65.60758290876539</v>
+        <v>65.652523</v>
       </c>
       <c r="H3">
-        <v>65.60758290876539</v>
+        <v>131.305046</v>
       </c>
       <c r="I3">
-        <v>0.08152006478629474</v>
+        <v>0.07819491960606291</v>
       </c>
       <c r="J3">
-        <v>0.08152006478629474</v>
+        <v>0.05521457487889056</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.292205734237438</v>
+        <v>0.4083613333333334</v>
       </c>
       <c r="N3">
-        <v>0.292205734237438</v>
+        <v>1.225084</v>
       </c>
       <c r="O3">
-        <v>0.130418318699191</v>
+        <v>0.1659958747772335</v>
       </c>
       <c r="P3">
-        <v>0.130418318699191</v>
+        <v>0.2070797486342548</v>
       </c>
       <c r="Q3">
-        <v>19.17091193539938</v>
+        <v>26.80995182897734</v>
       </c>
       <c r="R3">
-        <v>19.17091193539938</v>
+        <v>160.859710973864</v>
       </c>
       <c r="S3">
-        <v>0.01063170978967768</v>
+        <v>0.01298003408314386</v>
       </c>
       <c r="T3">
-        <v>0.01063170978967768</v>
+        <v>0.0114338202868679</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>65.60758290876539</v>
+        <v>65.652523</v>
       </c>
       <c r="H4">
-        <v>65.60758290876539</v>
+        <v>131.305046</v>
       </c>
       <c r="I4">
-        <v>0.08152006478629474</v>
+        <v>0.07819491960606291</v>
       </c>
       <c r="J4">
-        <v>0.08152006478629474</v>
+        <v>0.05521457487889056</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.102307673595621</v>
+        <v>0.1071516666666667</v>
       </c>
       <c r="N4">
-        <v>0.102307673595621</v>
+        <v>0.321455</v>
       </c>
       <c r="O4">
-        <v>0.0456623303960371</v>
+        <v>0.04355636342203116</v>
       </c>
       <c r="P4">
-        <v>0.0456623303960371</v>
+        <v>0.05433653577813798</v>
       </c>
       <c r="Q4">
-        <v>6.712159177627613</v>
+        <v>7.034777260321668</v>
       </c>
       <c r="R4">
-        <v>6.712159177627613</v>
+        <v>42.20866356193001</v>
       </c>
       <c r="S4">
-        <v>0.00372239613217814</v>
+        <v>0.003405886336118186</v>
       </c>
       <c r="T4">
-        <v>0.00372239613217814</v>
+        <v>0.003000168723381515</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>65.60758290876539</v>
+        <v>65.652523</v>
       </c>
       <c r="H5">
-        <v>65.60758290876539</v>
+        <v>131.305046</v>
       </c>
       <c r="I5">
-        <v>0.08152006478629474</v>
+        <v>0.07819491960606291</v>
       </c>
       <c r="J5">
-        <v>0.08152006478629474</v>
+        <v>0.05521457487889056</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.272288358326865</v>
+        <v>0.2805203333333333</v>
       </c>
       <c r="N5">
-        <v>0.272288358326865</v>
+        <v>0.841561</v>
       </c>
       <c r="O5">
-        <v>0.1215287235448195</v>
+        <v>0.1140294497139816</v>
       </c>
       <c r="P5">
-        <v>0.1215287235448195</v>
+        <v>0.1422516662860605</v>
       </c>
       <c r="Q5">
-        <v>17.86418104402141</v>
+        <v>18.41686763613433</v>
       </c>
       <c r="R5">
-        <v>17.86418104402141</v>
+        <v>110.501205816806</v>
       </c>
       <c r="S5">
-        <v>0.009907029416769386</v>
+        <v>0.008916523653108384</v>
       </c>
       <c r="T5">
-        <v>0.009907029416769386</v>
+        <v>0.007854365279798638</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>65.60758290876539</v>
+        <v>65.652523</v>
       </c>
       <c r="H6">
-        <v>65.60758290876539</v>
+        <v>131.305046</v>
       </c>
       <c r="I6">
-        <v>0.08152006478629474</v>
+        <v>0.07819491960606291</v>
       </c>
       <c r="J6">
-        <v>0.08152006478629474</v>
+        <v>0.05521457487889056</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.197820158636817</v>
+        <v>0.1998293333333333</v>
       </c>
       <c r="N6">
-        <v>0.197820158636817</v>
+        <v>0.599488</v>
       </c>
       <c r="O6">
-        <v>0.08829180769346945</v>
+        <v>0.08122915243236724</v>
       </c>
       <c r="P6">
-        <v>0.08829180769346945</v>
+        <v>0.1013333162046457</v>
       </c>
       <c r="Q6">
-        <v>12.97850245879009</v>
+        <v>13.11929990274133</v>
       </c>
       <c r="R6">
-        <v>12.97850245879009</v>
+        <v>78.71579941644801</v>
       </c>
       <c r="S6">
-        <v>0.007197553883270705</v>
+        <v>0.006351707044117585</v>
       </c>
       <c r="T6">
-        <v>0.007197553883270705</v>
+        <v>0.005595075975307703</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>65.60758290876539</v>
+        <v>65.652523</v>
       </c>
       <c r="H7">
-        <v>65.60758290876539</v>
+        <v>131.305046</v>
       </c>
       <c r="I7">
-        <v>0.08152006478629474</v>
+        <v>0.07819491960606291</v>
       </c>
       <c r="J7">
-        <v>0.08152006478629474</v>
+        <v>0.05521457487889056</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.686090437959895</v>
+        <v>0.7379140000000001</v>
       </c>
       <c r="N7">
-        <v>0.686090437959895</v>
+        <v>1.475828</v>
       </c>
       <c r="O7">
-        <v>0.3062183623050095</v>
+        <v>0.29995660691112</v>
       </c>
       <c r="P7">
-        <v>0.3062183623050095</v>
+        <v>0.2494637847424299</v>
       </c>
       <c r="Q7">
-        <v>45.01273529136497</v>
+        <v>48.44591585702201</v>
       </c>
       <c r="R7">
-        <v>45.01273529136497</v>
+        <v>193.783663428088</v>
       </c>
       <c r="S7">
-        <v>0.02496294073385745</v>
+        <v>0.02345508276272245</v>
       </c>
       <c r="T7">
-        <v>0.02496294073385745</v>
+        <v>0.01377403682223233</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>260.306395333893</v>
+        <v>276.9773456666667</v>
       </c>
       <c r="H8">
-        <v>260.306395333893</v>
+        <v>830.932037</v>
       </c>
       <c r="I8">
-        <v>0.3234411827275337</v>
+        <v>0.3298916825649746</v>
       </c>
       <c r="J8">
-        <v>0.3234411827275337</v>
+        <v>0.3494120033757542</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.68981440642683</v>
+        <v>0.7262925</v>
       </c>
       <c r="N8">
-        <v>0.68981440642683</v>
+        <v>1.452585</v>
       </c>
       <c r="O8">
-        <v>0.3078804573614734</v>
+        <v>0.2952325527432663</v>
       </c>
       <c r="P8">
-        <v>0.3078804573614734</v>
+        <v>0.2455349483544712</v>
       </c>
       <c r="Q8">
-        <v>179.5631015863572</v>
+        <v>201.1665688276075</v>
       </c>
       <c r="R8">
-        <v>179.5631015863572</v>
+        <v>1206.999412965645</v>
       </c>
       <c r="S8">
-        <v>0.09958121926768898</v>
+        <v>0.09739476357242875</v>
       </c>
       <c r="T8">
-        <v>0.09958121926768898</v>
+        <v>0.08579285820329813</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>260.306395333893</v>
+        <v>276.9773456666667</v>
       </c>
       <c r="H9">
-        <v>260.306395333893</v>
+        <v>830.932037</v>
       </c>
       <c r="I9">
-        <v>0.3234411827275337</v>
+        <v>0.3298916825649746</v>
       </c>
       <c r="J9">
-        <v>0.3234411827275337</v>
+        <v>0.3494120033757542</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.292205734237438</v>
+        <v>0.4083613333333334</v>
       </c>
       <c r="N9">
-        <v>0.292205734237438</v>
+        <v>1.225084</v>
       </c>
       <c r="O9">
-        <v>0.130418318699191</v>
+        <v>0.1659958747772335</v>
       </c>
       <c r="P9">
-        <v>0.130418318699191</v>
+        <v>0.2070797486342548</v>
       </c>
       <c r="Q9">
-        <v>76.06302137524102</v>
+        <v>113.1068381795676</v>
       </c>
       <c r="R9">
-        <v>76.06302137524102</v>
+        <v>1017.961543616108</v>
       </c>
       <c r="S9">
-        <v>0.04218265524940276</v>
+        <v>0.05476065842910641</v>
       </c>
       <c r="T9">
-        <v>0.04218265524940276</v>
+        <v>0.07235614982884257</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>260.306395333893</v>
+        <v>276.9773456666667</v>
       </c>
       <c r="H10">
-        <v>260.306395333893</v>
+        <v>830.932037</v>
       </c>
       <c r="I10">
-        <v>0.3234411827275337</v>
+        <v>0.3298916825649746</v>
       </c>
       <c r="J10">
-        <v>0.3234411827275337</v>
+        <v>0.3494120033757542</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.102307673595621</v>
+        <v>0.1071516666666667</v>
       </c>
       <c r="N10">
-        <v>0.102307673595621</v>
+        <v>0.321455</v>
       </c>
       <c r="O10">
-        <v>0.0456623303960371</v>
+        <v>0.04355636342203116</v>
       </c>
       <c r="P10">
-        <v>0.0456623303960371</v>
+        <v>0.05433653577813798</v>
       </c>
       <c r="Q10">
-        <v>26.63134172867261</v>
+        <v>29.67858421709278</v>
       </c>
       <c r="R10">
-        <v>26.63134172867261</v>
+        <v>267.1072579538351</v>
       </c>
       <c r="S10">
-        <v>0.01476907814938965</v>
+        <v>0.01436888201570538</v>
       </c>
       <c r="T10">
-        <v>0.01476907814938965</v>
+        <v>0.01898583782273754</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>260.306395333893</v>
+        <v>276.9773456666667</v>
       </c>
       <c r="H11">
-        <v>260.306395333893</v>
+        <v>830.932037</v>
       </c>
       <c r="I11">
-        <v>0.3234411827275337</v>
+        <v>0.3298916825649746</v>
       </c>
       <c r="J11">
-        <v>0.3234411827275337</v>
+        <v>0.3494120033757542</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.272288358326865</v>
+        <v>0.2805203333333333</v>
       </c>
       <c r="N11">
-        <v>0.272288358326865</v>
+        <v>0.841561</v>
       </c>
       <c r="O11">
-        <v>0.1215287235448195</v>
+        <v>0.1140294497139816</v>
       </c>
       <c r="P11">
-        <v>0.1215287235448195</v>
+        <v>0.1422516662860605</v>
       </c>
       <c r="Q11">
-        <v>70.87840104744964</v>
+        <v>77.69777733219522</v>
       </c>
       <c r="R11">
-        <v>70.87840104744964</v>
+        <v>699.279995989757</v>
       </c>
       <c r="S11">
-        <v>0.03930739407870389</v>
+        <v>0.03761736702810356</v>
       </c>
       <c r="T11">
-        <v>0.03930739407870389</v>
+        <v>0.04970443970055162</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>260.306395333893</v>
+        <v>276.9773456666667</v>
       </c>
       <c r="H12">
-        <v>260.306395333893</v>
+        <v>830.932037</v>
       </c>
       <c r="I12">
-        <v>0.3234411827275337</v>
+        <v>0.3298916825649746</v>
       </c>
       <c r="J12">
-        <v>0.3234411827275337</v>
+        <v>0.3494120033757542</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.197820158636817</v>
+        <v>0.1998293333333333</v>
       </c>
       <c r="N12">
-        <v>0.197820158636817</v>
+        <v>0.599488</v>
       </c>
       <c r="O12">
-        <v>0.08829180769346945</v>
+        <v>0.08122915243236724</v>
       </c>
       <c r="P12">
-        <v>0.08829180769346945</v>
+        <v>0.1013333162046457</v>
       </c>
       <c r="Q12">
-        <v>51.49385241912872</v>
+        <v>55.34819833300622</v>
       </c>
       <c r="R12">
-        <v>51.49385241912872</v>
+        <v>498.133784997056</v>
       </c>
       <c r="S12">
-        <v>0.02855720670552772</v>
+        <v>0.02679682176924043</v>
       </c>
       <c r="T12">
-        <v>0.02855720670552772</v>
+        <v>0.03540707702377402</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>260.306395333893</v>
+        <v>276.9773456666667</v>
       </c>
       <c r="H13">
-        <v>260.306395333893</v>
+        <v>830.932037</v>
       </c>
       <c r="I13">
-        <v>0.3234411827275337</v>
+        <v>0.3298916825649746</v>
       </c>
       <c r="J13">
-        <v>0.3234411827275337</v>
+        <v>0.3494120033757542</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.686090437959895</v>
+        <v>0.7379140000000001</v>
       </c>
       <c r="N13">
-        <v>0.686090437959895</v>
+        <v>1.475828</v>
       </c>
       <c r="O13">
-        <v>0.3062183623050095</v>
+        <v>0.29995660691112</v>
       </c>
       <c r="P13">
-        <v>0.3062183623050095</v>
+        <v>0.2494637847424299</v>
       </c>
       <c r="Q13">
-        <v>178.5937287783922</v>
+        <v>204.3854610502727</v>
       </c>
       <c r="R13">
-        <v>178.5937287783922</v>
+        <v>1226.312766301636</v>
       </c>
       <c r="S13">
-        <v>0.0990436292768207</v>
+        <v>0.09895318975039008</v>
       </c>
       <c r="T13">
-        <v>0.0990436292768207</v>
+        <v>0.08716564079655034</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>208.32228131281</v>
+        <v>219.2267506666667</v>
       </c>
       <c r="H14">
-        <v>208.32228131281</v>
+        <v>657.680252</v>
       </c>
       <c r="I14">
-        <v>0.2588488268599219</v>
+        <v>0.2611082919673688</v>
       </c>
       <c r="J14">
-        <v>0.2588488268599219</v>
+        <v>0.2765585682093407</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.68981440642683</v>
+        <v>0.7262925</v>
       </c>
       <c r="N14">
-        <v>0.68981440642683</v>
+        <v>1.452585</v>
       </c>
       <c r="O14">
-        <v>0.3078804573614734</v>
+        <v>0.2952325527432663</v>
       </c>
       <c r="P14">
-        <v>0.3078804573614734</v>
+        <v>0.2455349483544712</v>
       </c>
       <c r="Q14">
-        <v>143.7037108292791</v>
+        <v>159.22274480857</v>
       </c>
       <c r="R14">
-        <v>143.7037108292791</v>
+        <v>955.33646885142</v>
       </c>
       <c r="S14">
-        <v>0.07969449520111362</v>
+        <v>0.0770876675799604</v>
       </c>
       <c r="T14">
-        <v>0.07969449520111362</v>
+        <v>0.06790479376226696</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>208.32228131281</v>
+        <v>219.2267506666667</v>
       </c>
       <c r="H15">
-        <v>208.32228131281</v>
+        <v>657.680252</v>
       </c>
       <c r="I15">
-        <v>0.2588488268599219</v>
+        <v>0.2611082919673688</v>
       </c>
       <c r="J15">
-        <v>0.2588488268599219</v>
+        <v>0.2765585682093407</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.292205734237438</v>
+        <v>0.4083613333333334</v>
       </c>
       <c r="N15">
-        <v>0.292205734237438</v>
+        <v>1.225084</v>
       </c>
       <c r="O15">
-        <v>0.130418318699191</v>
+        <v>0.1659958747772335</v>
       </c>
       <c r="P15">
-        <v>0.130418318699191</v>
+        <v>0.2070797486342548</v>
       </c>
       <c r="Q15">
-        <v>60.87296516902776</v>
+        <v>89.52372820457423</v>
       </c>
       <c r="R15">
-        <v>60.87296516902776</v>
+        <v>805.713553841168</v>
       </c>
       <c r="S15">
-        <v>0.03375862879632901</v>
+        <v>0.0433428993367127</v>
       </c>
       <c r="T15">
-        <v>0.03375862879632901</v>
+        <v>0.05726967878743968</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>208.32228131281</v>
+        <v>219.2267506666667</v>
       </c>
       <c r="H16">
-        <v>208.32228131281</v>
+        <v>657.680252</v>
       </c>
       <c r="I16">
-        <v>0.2588488268599219</v>
+        <v>0.2611082919673688</v>
       </c>
       <c r="J16">
-        <v>0.2588488268599219</v>
+        <v>0.2765585682093407</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.102307673595621</v>
+        <v>0.1071516666666667</v>
       </c>
       <c r="N16">
-        <v>0.102307673595621</v>
+        <v>0.321455</v>
       </c>
       <c r="O16">
-        <v>0.0456623303960371</v>
+        <v>0.04355636342203116</v>
       </c>
       <c r="P16">
-        <v>0.0456623303960371</v>
+        <v>0.05433653577813798</v>
       </c>
       <c r="Q16">
-        <v>21.3129679592461</v>
+        <v>23.49051171185112</v>
       </c>
       <c r="R16">
-        <v>21.3129679592461</v>
+        <v>211.41460540666</v>
       </c>
       <c r="S16">
-        <v>0.01181964065470436</v>
+        <v>0.01137292765743654</v>
       </c>
       <c r="T16">
-        <v>0.01181964065470436</v>
+        <v>0.01502723453625745</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>208.32228131281</v>
+        <v>219.2267506666667</v>
       </c>
       <c r="H17">
-        <v>208.32228131281</v>
+        <v>657.680252</v>
       </c>
       <c r="I17">
-        <v>0.2588488268599219</v>
+        <v>0.2611082919673688</v>
       </c>
       <c r="J17">
-        <v>0.2588488268599219</v>
+        <v>0.2765585682093407</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.272288358326865</v>
+        <v>0.2805203333333333</v>
       </c>
       <c r="N17">
-        <v>0.272288358326865</v>
+        <v>0.841561</v>
       </c>
       <c r="O17">
-        <v>0.1215287235448195</v>
+        <v>0.1140294497139816</v>
       </c>
       <c r="P17">
-        <v>0.1215287235448195</v>
+        <v>0.1422516662860605</v>
       </c>
       <c r="Q17">
-        <v>56.72373198157238</v>
+        <v>61.49756117259689</v>
       </c>
       <c r="R17">
-        <v>56.72373198157238</v>
+        <v>553.478050553372</v>
       </c>
       <c r="S17">
-        <v>0.03145756751936029</v>
+        <v>0.02977403484879671</v>
       </c>
       <c r="T17">
-        <v>0.03145756751936029</v>
+        <v>0.03934091715346582</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>208.32228131281</v>
+        <v>219.2267506666667</v>
       </c>
       <c r="H18">
-        <v>208.32228131281</v>
+        <v>657.680252</v>
       </c>
       <c r="I18">
-        <v>0.2588488268599219</v>
+        <v>0.2611082919673688</v>
       </c>
       <c r="J18">
-        <v>0.2588488268599219</v>
+        <v>0.2765585682093407</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.197820158636817</v>
+        <v>0.1998293333333333</v>
       </c>
       <c r="N18">
-        <v>0.197820158636817</v>
+        <v>0.599488</v>
       </c>
       <c r="O18">
-        <v>0.08829180769346945</v>
+        <v>0.08122915243236724</v>
       </c>
       <c r="P18">
-        <v>0.08829180769346945</v>
+        <v>0.1013333162046457</v>
       </c>
       <c r="Q18">
-        <v>41.21034673688369</v>
+        <v>43.80793543455289</v>
       </c>
       <c r="R18">
-        <v>41.21034673688369</v>
+        <v>394.271418910976</v>
       </c>
       <c r="S18">
-        <v>0.0228542308427964</v>
+        <v>0.02120960524957245</v>
       </c>
       <c r="T18">
-        <v>0.0228542308427964</v>
+        <v>0.02802459684146119</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>208.32228131281</v>
+        <v>219.2267506666667</v>
       </c>
       <c r="H19">
-        <v>208.32228131281</v>
+        <v>657.680252</v>
       </c>
       <c r="I19">
-        <v>0.2588488268599219</v>
+        <v>0.2611082919673688</v>
       </c>
       <c r="J19">
-        <v>0.2588488268599219</v>
+        <v>0.2765585682093407</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.686090437959895</v>
+        <v>0.7379140000000001</v>
       </c>
       <c r="N19">
-        <v>0.686090437959895</v>
+        <v>1.475828</v>
       </c>
       <c r="O19">
-        <v>0.3062183623050095</v>
+        <v>0.29995660691112</v>
       </c>
       <c r="P19">
-        <v>0.3062183623050095</v>
+        <v>0.2494637847424299</v>
       </c>
       <c r="Q19">
-        <v>142.9279252227103</v>
+        <v>161.7704884914427</v>
       </c>
       <c r="R19">
-        <v>142.9279252227103</v>
+        <v>970.6229309486561</v>
       </c>
       <c r="S19">
-        <v>0.07926426384561824</v>
+        <v>0.07832115729489002</v>
       </c>
       <c r="T19">
-        <v>0.07926426384561824</v>
+        <v>0.06899134712844959</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>135.566467160813</v>
+        <v>136.2141876666667</v>
       </c>
       <c r="H20">
-        <v>135.566467160813</v>
+        <v>408.642563</v>
       </c>
       <c r="I20">
-        <v>0.1684467967851636</v>
+        <v>0.1622368336674611</v>
       </c>
       <c r="J20">
-        <v>0.1684467967851636</v>
+        <v>0.1718366969192125</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.68981440642683</v>
+        <v>0.7262925</v>
       </c>
       <c r="N20">
-        <v>0.68981440642683</v>
+        <v>1.452585</v>
       </c>
       <c r="O20">
-        <v>0.3078804573614734</v>
+        <v>0.2952325527432663</v>
       </c>
       <c r="P20">
-        <v>0.3078804573614734</v>
+        <v>0.2455349483544712</v>
       </c>
       <c r="Q20">
-        <v>93.51570207591857</v>
+        <v>98.93134289589251</v>
       </c>
       <c r="R20">
-        <v>93.51570207591857</v>
+        <v>593.588057375355</v>
       </c>
       <c r="S20">
-        <v>0.05186147683529133</v>
+        <v>0.04789759455262924</v>
       </c>
       <c r="T20">
-        <v>0.05186147683529133</v>
+        <v>0.04219191450346176</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>135.566467160813</v>
+        <v>136.2141876666667</v>
       </c>
       <c r="H21">
-        <v>135.566467160813</v>
+        <v>408.642563</v>
       </c>
       <c r="I21">
-        <v>0.1684467967851636</v>
+        <v>0.1622368336674611</v>
       </c>
       <c r="J21">
-        <v>0.1684467967851636</v>
+        <v>0.1718366969192125</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.292205734237438</v>
+        <v>0.4083613333333334</v>
       </c>
       <c r="N21">
-        <v>0.292205734237438</v>
+        <v>1.225084</v>
       </c>
       <c r="O21">
-        <v>0.130418318699191</v>
+        <v>0.1659958747772335</v>
       </c>
       <c r="P21">
-        <v>0.130418318699191</v>
+        <v>0.2070797486342548</v>
       </c>
       <c r="Q21">
-        <v>39.61329907470089</v>
+        <v>55.6246072944769</v>
       </c>
       <c r="R21">
-        <v>39.61329907470089</v>
+        <v>500.621465650292</v>
       </c>
       <c r="S21">
-        <v>0.02196854802698532</v>
+        <v>0.02693064512571875</v>
       </c>
       <c r="T21">
-        <v>0.02196854802698532</v>
+        <v>0.03558390000417115</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>135.566467160813</v>
+        <v>136.2141876666667</v>
       </c>
       <c r="H22">
-        <v>135.566467160813</v>
+        <v>408.642563</v>
       </c>
       <c r="I22">
-        <v>0.1684467967851636</v>
+        <v>0.1622368336674611</v>
       </c>
       <c r="J22">
-        <v>0.1684467967851636</v>
+        <v>0.1718366969192125</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.102307673595621</v>
+        <v>0.1071516666666667</v>
       </c>
       <c r="N22">
-        <v>0.102307673595621</v>
+        <v>0.321455</v>
       </c>
       <c r="O22">
-        <v>0.0456623303960371</v>
+        <v>0.04355636342203116</v>
       </c>
       <c r="P22">
-        <v>0.0456623303960371</v>
+        <v>0.05433653577813798</v>
       </c>
       <c r="Q22">
-        <v>13.86948987279993</v>
+        <v>14.59557723212945</v>
       </c>
       <c r="R22">
-        <v>13.86948987279993</v>
+        <v>131.360195089165</v>
       </c>
       <c r="S22">
-        <v>0.007691673288958258</v>
+        <v>0.007066446487659558</v>
       </c>
       <c r="T22">
-        <v>0.007691673288958258</v>
+        <v>0.009337010830147841</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>135.566467160813</v>
+        <v>136.2141876666667</v>
       </c>
       <c r="H23">
-        <v>135.566467160813</v>
+        <v>408.642563</v>
       </c>
       <c r="I23">
-        <v>0.1684467967851636</v>
+        <v>0.1622368336674611</v>
       </c>
       <c r="J23">
-        <v>0.1684467967851636</v>
+        <v>0.1718366969192125</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.272288358326865</v>
+        <v>0.2805203333333333</v>
       </c>
       <c r="N23">
-        <v>0.272288358326865</v>
+        <v>0.841561</v>
       </c>
       <c r="O23">
-        <v>0.1215287235448195</v>
+        <v>0.1140294497139816</v>
       </c>
       <c r="P23">
-        <v>0.1215287235448195</v>
+        <v>0.1422516662860605</v>
       </c>
       <c r="Q23">
-        <v>36.91317078739063</v>
+        <v>38.21084932898255</v>
       </c>
       <c r="R23">
-        <v>36.91317078739063</v>
+        <v>343.897643960843</v>
       </c>
       <c r="S23">
-        <v>0.02047112419851452</v>
+        <v>0.01849977686643936</v>
       </c>
       <c r="T23">
-        <v>0.02047112419851452</v>
+        <v>0.02444405646585073</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>135.566467160813</v>
+        <v>136.2141876666667</v>
       </c>
       <c r="H24">
-        <v>135.566467160813</v>
+        <v>408.642563</v>
       </c>
       <c r="I24">
-        <v>0.1684467967851636</v>
+        <v>0.1622368336674611</v>
       </c>
       <c r="J24">
-        <v>0.1684467967851636</v>
+        <v>0.1718366969192125</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.197820158636817</v>
+        <v>0.1998293333333333</v>
       </c>
       <c r="N24">
-        <v>0.197820158636817</v>
+        <v>0.599488</v>
       </c>
       <c r="O24">
-        <v>0.08829180769346945</v>
+        <v>0.08122915243236724</v>
       </c>
       <c r="P24">
-        <v>0.08829180769346945</v>
+        <v>0.1013333162046457</v>
       </c>
       <c r="Q24">
-        <v>26.81778003958487</v>
+        <v>27.21959031197156</v>
       </c>
       <c r="R24">
-        <v>26.81778003958487</v>
+        <v>244.976312807744</v>
       </c>
       <c r="S24">
-        <v>0.01487247218833659</v>
+        <v>0.01317836049211881</v>
       </c>
       <c r="T24">
-        <v>0.01487247218833659</v>
+        <v>0.01741278234447642</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>135.566467160813</v>
+        <v>136.2141876666667</v>
       </c>
       <c r="H25">
-        <v>135.566467160813</v>
+        <v>408.642563</v>
       </c>
       <c r="I25">
-        <v>0.1684467967851636</v>
+        <v>0.1622368336674611</v>
       </c>
       <c r="J25">
-        <v>0.1684467967851636</v>
+        <v>0.1718366969192125</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.686090437959895</v>
+        <v>0.7379140000000001</v>
       </c>
       <c r="N25">
-        <v>0.686090437959895</v>
+        <v>1.475828</v>
       </c>
       <c r="O25">
-        <v>0.3062183623050095</v>
+        <v>0.29995660691112</v>
       </c>
       <c r="P25">
-        <v>0.3062183623050095</v>
+        <v>0.2494637847424299</v>
       </c>
       <c r="Q25">
-        <v>93.01085682703791</v>
+        <v>100.5143560778607</v>
       </c>
       <c r="R25">
-        <v>93.01085682703791</v>
+        <v>603.086136467164</v>
       </c>
       <c r="S25">
-        <v>0.05158150224707752</v>
+        <v>0.0486640101428954</v>
       </c>
       <c r="T25">
-        <v>0.05158150224707752</v>
+        <v>0.0428670327711046</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>61.7092671774153</v>
+        <v>66.466661</v>
       </c>
       <c r="H26">
-        <v>61.7092671774153</v>
+        <v>199.399983</v>
       </c>
       <c r="I26">
-        <v>0.07667625044521445</v>
+        <v>0.07916459224847211</v>
       </c>
       <c r="J26">
-        <v>0.07667625044521445</v>
+        <v>0.08384891234266049</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.68981440642683</v>
+        <v>0.7262925</v>
       </c>
       <c r="N26">
-        <v>0.68981440642683</v>
+        <v>1.452585</v>
       </c>
       <c r="O26">
-        <v>0.3078804573614734</v>
+        <v>0.2952325527432663</v>
       </c>
       <c r="P26">
-        <v>0.3078804573614734</v>
+        <v>0.2455349483544712</v>
       </c>
       <c r="Q26">
-        <v>42.5679415090234</v>
+        <v>48.2742373843425</v>
       </c>
       <c r="R26">
-        <v>42.5679415090234</v>
+        <v>289.645424306055</v>
       </c>
       <c r="S26">
-        <v>0.0236071190558355</v>
+        <v>0.02337196465639621</v>
       </c>
       <c r="T26">
-        <v>0.0236071190558355</v>
+        <v>0.02058783836163373</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>61.7092671774153</v>
+        <v>66.466661</v>
       </c>
       <c r="H27">
-        <v>61.7092671774153</v>
+        <v>199.399983</v>
       </c>
       <c r="I27">
-        <v>0.07667625044521445</v>
+        <v>0.07916459224847211</v>
       </c>
       <c r="J27">
-        <v>0.07667625044521445</v>
+        <v>0.08384891234266049</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.292205734237438</v>
+        <v>0.4083613333333334</v>
       </c>
       <c r="N27">
-        <v>0.292205734237438</v>
+        <v>1.225084</v>
       </c>
       <c r="O27">
-        <v>0.130418318699191</v>
+        <v>0.1659958747772335</v>
       </c>
       <c r="P27">
-        <v>0.130418318699191</v>
+        <v>0.2070797486342548</v>
       </c>
       <c r="Q27">
-        <v>18.03180172483087</v>
+        <v>27.14241430817467</v>
       </c>
       <c r="R27">
-        <v>18.03180172483087</v>
+        <v>244.281728773572</v>
       </c>
       <c r="S27">
-        <v>0.009999987667222963</v>
+        <v>0.01314099574166813</v>
       </c>
       <c r="T27">
-        <v>0.009999987667222963</v>
+        <v>0.0173634116911738</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>61.7092671774153</v>
+        <v>66.466661</v>
       </c>
       <c r="H28">
-        <v>61.7092671774153</v>
+        <v>199.399983</v>
       </c>
       <c r="I28">
-        <v>0.07667625044521445</v>
+        <v>0.07916459224847211</v>
       </c>
       <c r="J28">
-        <v>0.07667625044521445</v>
+        <v>0.08384891234266049</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.102307673595621</v>
+        <v>0.1071516666666667</v>
       </c>
       <c r="N28">
-        <v>0.102307673595621</v>
+        <v>0.321455</v>
       </c>
       <c r="O28">
-        <v>0.0456623303960371</v>
+        <v>0.04355636342203116</v>
       </c>
       <c r="P28">
-        <v>0.0456623303960371</v>
+        <v>0.05433653577813798</v>
       </c>
       <c r="Q28">
-        <v>6.313331564211973</v>
+        <v>7.122013503918335</v>
       </c>
       <c r="R28">
-        <v>6.313331564211973</v>
+        <v>64.09812153526501</v>
       </c>
       <c r="S28">
-        <v>0.003501216281358669</v>
+        <v>0.003448121750131362</v>
       </c>
       <c r="T28">
-        <v>0.003501216281358669</v>
+        <v>0.004556059425464928</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>61.7092671774153</v>
+        <v>66.466661</v>
       </c>
       <c r="H29">
-        <v>61.7092671774153</v>
+        <v>199.399983</v>
       </c>
       <c r="I29">
-        <v>0.07667625044521445</v>
+        <v>0.07916459224847211</v>
       </c>
       <c r="J29">
-        <v>0.07667625044521445</v>
+        <v>0.08384891234266049</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.272288358326865</v>
+        <v>0.2805203333333333</v>
       </c>
       <c r="N29">
-        <v>0.272288358326865</v>
+        <v>0.841561</v>
       </c>
       <c r="O29">
-        <v>0.1215287235448195</v>
+        <v>0.1140294497139816</v>
       </c>
       <c r="P29">
-        <v>0.1215287235448195</v>
+        <v>0.1422516662860605</v>
       </c>
       <c r="Q29">
-        <v>16.80271505329231</v>
+        <v>18.64524989927367</v>
       </c>
       <c r="R29">
-        <v>16.80271505329231</v>
+        <v>167.807249093463</v>
       </c>
       <c r="S29">
-        <v>0.009318366842809806</v>
+        <v>0.009027094890925009</v>
       </c>
       <c r="T29">
-        <v>0.009318366842809806</v>
+        <v>0.01192764749701728</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>61.7092671774153</v>
+        <v>66.466661</v>
       </c>
       <c r="H30">
-        <v>61.7092671774153</v>
+        <v>199.399983</v>
       </c>
       <c r="I30">
-        <v>0.07667625044521445</v>
+        <v>0.07916459224847211</v>
       </c>
       <c r="J30">
-        <v>0.07667625044521445</v>
+        <v>0.08384891234266049</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.197820158636817</v>
+        <v>0.1998293333333333</v>
       </c>
       <c r="N30">
-        <v>0.197820158636817</v>
+        <v>0.599488</v>
       </c>
       <c r="O30">
-        <v>0.08829180769346945</v>
+        <v>0.08122915243236724</v>
       </c>
       <c r="P30">
-        <v>0.08829180769346945</v>
+        <v>0.1013333162046457</v>
       </c>
       <c r="Q30">
-        <v>12.20733702239802</v>
+        <v>13.28198855652267</v>
       </c>
       <c r="R30">
-        <v>12.20733702239802</v>
+        <v>119.537897008704</v>
       </c>
       <c r="S30">
-        <v>0.006769884758965176</v>
+        <v>0.006430472730997339</v>
       </c>
       <c r="T30">
-        <v>0.006769884758965176</v>
+        <v>0.008496688347834434</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>61.7092671774153</v>
+        <v>66.466661</v>
       </c>
       <c r="H31">
-        <v>61.7092671774153</v>
+        <v>199.399983</v>
       </c>
       <c r="I31">
-        <v>0.07667625044521445</v>
+        <v>0.07916459224847211</v>
       </c>
       <c r="J31">
-        <v>0.07667625044521445</v>
+        <v>0.08384891234266049</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.686090437959895</v>
+        <v>0.7379140000000001</v>
       </c>
       <c r="N31">
-        <v>0.686090437959895</v>
+        <v>1.475828</v>
       </c>
       <c r="O31">
-        <v>0.3062183623050095</v>
+        <v>0.29995660691112</v>
       </c>
       <c r="P31">
-        <v>0.3062183623050095</v>
+        <v>0.2494637847424299</v>
       </c>
       <c r="Q31">
-        <v>42.33813814393704</v>
+        <v>49.046679685154</v>
       </c>
       <c r="R31">
-        <v>42.33813814393704</v>
+        <v>294.280078110924</v>
       </c>
       <c r="S31">
-        <v>0.02347967583902232</v>
+        <v>0.02374594247835405</v>
       </c>
       <c r="T31">
-        <v>0.02347967583902232</v>
+        <v>0.02091726701953633</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>73.29088599551829</v>
+        <v>75.063408</v>
       </c>
       <c r="H32">
-        <v>73.29088599551829</v>
+        <v>150.126816</v>
       </c>
       <c r="I32">
-        <v>0.09106687839587146</v>
+        <v>0.08940367994566026</v>
       </c>
       <c r="J32">
-        <v>0.09106687839587146</v>
+        <v>0.06312924427414179</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.68981440642683</v>
+        <v>0.7262925</v>
       </c>
       <c r="N32">
-        <v>0.68981440642683</v>
+        <v>1.452585</v>
       </c>
       <c r="O32">
-        <v>0.3078804573614734</v>
+        <v>0.2952325527432663</v>
       </c>
       <c r="P32">
-        <v>0.3078804573614734</v>
+        <v>0.2455349483544712</v>
       </c>
       <c r="Q32">
-        <v>50.55710901949492</v>
+        <v>54.51799025483999</v>
       </c>
       <c r="R32">
-        <v>50.55710901949492</v>
+        <v>218.07196101936</v>
       </c>
       <c r="S32">
-        <v>0.02803771217100259</v>
+        <v>0.02639487665499924</v>
       </c>
       <c r="T32">
-        <v>0.02803771217100259</v>
+        <v>0.0155004357325082</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>73.29088599551829</v>
+        <v>75.063408</v>
       </c>
       <c r="H33">
-        <v>73.29088599551829</v>
+        <v>150.126816</v>
       </c>
       <c r="I33">
-        <v>0.09106687839587146</v>
+        <v>0.08940367994566026</v>
       </c>
       <c r="J33">
-        <v>0.09106687839587146</v>
+        <v>0.06312924427414179</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.292205734237438</v>
+        <v>0.4083613333333334</v>
       </c>
       <c r="N33">
-        <v>0.292205734237438</v>
+        <v>1.225084</v>
       </c>
       <c r="O33">
-        <v>0.130418318699191</v>
+        <v>0.1659958747772335</v>
       </c>
       <c r="P33">
-        <v>0.130418318699191</v>
+        <v>0.2070797486342548</v>
       </c>
       <c r="Q33">
-        <v>21.41601715523279</v>
+        <v>30.652993375424</v>
       </c>
       <c r="R33">
-        <v>21.41601715523279</v>
+        <v>183.917960252544</v>
       </c>
       <c r="S33">
-        <v>0.01187678916957324</v>
+        <v>0.01484064206088369</v>
       </c>
       <c r="T33">
-        <v>0.01187678916957324</v>
+        <v>0.01307278803575975</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>73.29088599551829</v>
+        <v>75.063408</v>
       </c>
       <c r="H34">
-        <v>73.29088599551829</v>
+        <v>150.126816</v>
       </c>
       <c r="I34">
-        <v>0.09106687839587146</v>
+        <v>0.08940367994566026</v>
       </c>
       <c r="J34">
-        <v>0.09106687839587146</v>
+        <v>0.06312924427414179</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.102307673595621</v>
+        <v>0.1071516666666667</v>
       </c>
       <c r="N34">
-        <v>0.102307673595621</v>
+        <v>0.321455</v>
       </c>
       <c r="O34">
-        <v>0.0456623303960371</v>
+        <v>0.04355636342203116</v>
       </c>
       <c r="P34">
-        <v>0.0456623303960371</v>
+        <v>0.05433653577813798</v>
       </c>
       <c r="Q34">
-        <v>7.498220041963356</v>
+        <v>8.04316927288</v>
       </c>
       <c r="R34">
-        <v>7.498220041963356</v>
+        <v>48.25901563728</v>
       </c>
       <c r="S34">
-        <v>0.004158325889448016</v>
+        <v>0.003894099174980137</v>
       </c>
       <c r="T34">
-        <v>0.004158325889448016</v>
+        <v>0.003430224440148718</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>73.29088599551829</v>
+        <v>75.063408</v>
       </c>
       <c r="H35">
-        <v>73.29088599551829</v>
+        <v>150.126816</v>
       </c>
       <c r="I35">
-        <v>0.09106687839587146</v>
+        <v>0.08940367994566026</v>
       </c>
       <c r="J35">
-        <v>0.09106687839587146</v>
+        <v>0.06312924427414179</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.272288358326865</v>
+        <v>0.2805203333333333</v>
       </c>
       <c r="N35">
-        <v>0.272288358326865</v>
+        <v>0.841561</v>
       </c>
       <c r="O35">
-        <v>0.1215287235448195</v>
+        <v>0.1140294497139816</v>
       </c>
       <c r="P35">
-        <v>0.1215287235448195</v>
+        <v>0.1422516662860605</v>
       </c>
       <c r="Q35">
-        <v>19.9562550280411</v>
+        <v>21.056812233296</v>
       </c>
       <c r="R35">
-        <v>19.9562550280411</v>
+        <v>126.340873399776</v>
       </c>
       <c r="S35">
-        <v>0.01106724148866155</v>
+        <v>0.01019465242660857</v>
       </c>
       <c r="T35">
-        <v>0.01106724148866155</v>
+        <v>0.008980240189376413</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>73.29088599551829</v>
+        <v>75.063408</v>
       </c>
       <c r="H36">
-        <v>73.29088599551829</v>
+        <v>150.126816</v>
       </c>
       <c r="I36">
-        <v>0.09106687839587146</v>
+        <v>0.08940367994566026</v>
       </c>
       <c r="J36">
-        <v>0.09106687839587146</v>
+        <v>0.06312924427414179</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.197820158636817</v>
+        <v>0.1998293333333333</v>
       </c>
       <c r="N36">
-        <v>0.197820158636817</v>
+        <v>0.599488</v>
       </c>
       <c r="O36">
-        <v>0.08829180769346945</v>
+        <v>0.08122915243236724</v>
       </c>
       <c r="P36">
-        <v>0.08829180769346945</v>
+        <v>0.1013333162046457</v>
       </c>
       <c r="Q36">
-        <v>14.4984146942663</v>
+        <v>14.999870778368</v>
       </c>
       <c r="R36">
-        <v>14.4984146942663</v>
+        <v>89.99922467020799</v>
       </c>
       <c r="S36">
-        <v>0.00804045931457285</v>
+        <v>0.007262185146320611</v>
       </c>
       <c r="T36">
-        <v>0.00804045931457285</v>
+        <v>0.006397095671791928</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>73.29088599551829</v>
+        <v>75.063408</v>
       </c>
       <c r="H37">
-        <v>73.29088599551829</v>
+        <v>150.126816</v>
       </c>
       <c r="I37">
-        <v>0.09106687839587146</v>
+        <v>0.08940367994566026</v>
       </c>
       <c r="J37">
-        <v>0.09106687839587146</v>
+        <v>0.06312924427414179</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.686090437959895</v>
+        <v>0.7379140000000001</v>
       </c>
       <c r="N37">
-        <v>0.686090437959895</v>
+        <v>1.475828</v>
       </c>
       <c r="O37">
-        <v>0.3062183623050095</v>
+        <v>0.29995660691112</v>
       </c>
       <c r="P37">
-        <v>0.3062183623050095</v>
+        <v>0.2494637847424299</v>
       </c>
       <c r="Q37">
-        <v>50.28417607113388</v>
+        <v>55.390339650912</v>
       </c>
       <c r="R37">
-        <v>50.28417607113388</v>
+        <v>221.561358603648</v>
       </c>
       <c r="S37">
-        <v>0.02788635036261321</v>
+        <v>0.026817224481868</v>
       </c>
       <c r="T37">
-        <v>0.02788635036261321</v>
+        <v>0.01574846020455679</v>
       </c>
     </row>
   </sheetData>
